--- a/data/locations/bm_units_with_locations.xlsx
+++ b/data/locations/bm_units_with_locations.xlsx
@@ -1348,7 +1348,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1656,7 +1656,7 @@
   <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
